--- a/修正任务.xlsx
+++ b/修正任务.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
-    <sheet name="修正列表" sheetId="6" r:id="rId1"/>
+    <sheet name="李白" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>

--- a/修正任务.xlsx
+++ b/修正任务.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>优先级</t>
   </si>
@@ -54,18 +54,14 @@
     <t>高</t>
   </si>
   <si>
-    <t>温馨提示</t>
+    <t>风云榜显示不出来</t>
+  </si>
+  <si>
+    <t>杜甫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未投资界面的道具居中显示</t>
-  </si>
-  <si>
     <t>李白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李清照</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +106,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -140,12 +142,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,26 +162,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 3 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,7 +529,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -567,25 +569,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="14.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
